--- a/Code/Results/Cases/Case_5_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002171177558812</v>
+        <v>1.028178317714243</v>
       </c>
       <c r="D2">
-        <v>1.018273257352452</v>
+        <v>1.032125997470701</v>
       </c>
       <c r="E2">
-        <v>1.008324676436374</v>
+        <v>1.028177753935987</v>
       </c>
       <c r="F2">
-        <v>1.007729355050951</v>
+        <v>1.038536709080203</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041553284883601</v>
+        <v>1.034782100449942</v>
       </c>
       <c r="J2">
-        <v>1.02428714244189</v>
+        <v>1.033332078246427</v>
       </c>
       <c r="K2">
-        <v>1.029483753896095</v>
+        <v>1.034932128703562</v>
       </c>
       <c r="L2">
-        <v>1.019669240901955</v>
+        <v>1.030995328357599</v>
       </c>
       <c r="M2">
-        <v>1.019082047800485</v>
+        <v>1.041324461438989</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006126689993874</v>
+        <v>1.02901428895391</v>
       </c>
       <c r="D3">
-        <v>1.021053956333387</v>
+        <v>1.032734477795152</v>
       </c>
       <c r="E3">
-        <v>1.01144410161479</v>
+        <v>1.028884844064936</v>
       </c>
       <c r="F3">
-        <v>1.012547544737441</v>
+        <v>1.039630400522287</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042674713291971</v>
+        <v>1.034973945342576</v>
       </c>
       <c r="J3">
-        <v>1.026451717341465</v>
+        <v>1.033809130661187</v>
       </c>
       <c r="K3">
-        <v>1.03142435271484</v>
+        <v>1.035349852419388</v>
       </c>
       <c r="L3">
-        <v>1.021932617502595</v>
+        <v>1.031510571376367</v>
       </c>
       <c r="M3">
-        <v>1.023022355771772</v>
+        <v>1.04222743734959</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008637791403638</v>
+        <v>1.029555748876456</v>
       </c>
       <c r="D4">
-        <v>1.022822226997011</v>
+        <v>1.03312863166901</v>
       </c>
       <c r="E4">
-        <v>1.013430206882555</v>
+        <v>1.029343219136517</v>
       </c>
       <c r="F4">
-        <v>1.015607542637547</v>
+        <v>1.040339000620872</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043378291770793</v>
+        <v>1.035097165090164</v>
       </c>
       <c r="J4">
-        <v>1.027823093053173</v>
+        <v>1.034117694666493</v>
       </c>
       <c r="K4">
-        <v>1.032652794973211</v>
+        <v>1.035619879516503</v>
       </c>
       <c r="L4">
-        <v>1.023369198996627</v>
+        <v>1.031844135539274</v>
       </c>
       <c r="M4">
-        <v>1.025521178261961</v>
+        <v>1.042812041727811</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009682246757569</v>
+        <v>1.029783504251742</v>
       </c>
       <c r="D5">
-        <v>1.023558386557286</v>
+        <v>1.033294434478396</v>
       </c>
       <c r="E5">
-        <v>1.014257650089852</v>
+        <v>1.029536119598433</v>
       </c>
       <c r="F5">
-        <v>1.016880651255452</v>
+        <v>1.040637112796076</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043668904827096</v>
+        <v>1.03514874661287</v>
       </c>
       <c r="J5">
-        <v>1.028392806704424</v>
+        <v>1.034247384981626</v>
       </c>
       <c r="K5">
-        <v>1.033162872881478</v>
+        <v>1.03573333367174</v>
       </c>
       <c r="L5">
-        <v>1.023966626653887</v>
+        <v>1.031984404809889</v>
       </c>
       <c r="M5">
-        <v>1.026559920961706</v>
+        <v>1.043057884838283</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00985696841051</v>
+        <v>1.029821752707136</v>
       </c>
       <c r="D6">
-        <v>1.023681573359345</v>
+        <v>1.033322279348732</v>
       </c>
       <c r="E6">
-        <v>1.014396147362006</v>
+        <v>1.029568520090947</v>
       </c>
       <c r="F6">
-        <v>1.017093645044961</v>
+        <v>1.04068717982518</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04371739989134</v>
+        <v>1.035157394455924</v>
       </c>
       <c r="J6">
-        <v>1.02848806998496</v>
+        <v>1.03426915876628</v>
       </c>
       <c r="K6">
-        <v>1.033248148976149</v>
+        <v>1.035752379267388</v>
       </c>
       <c r="L6">
-        <v>1.024066560818583</v>
+        <v>1.032007958883724</v>
       </c>
       <c r="M6">
-        <v>1.026733652081765</v>
+        <v>1.043099167377257</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008651791042327</v>
+        <v>1.029558791663072</v>
       </c>
       <c r="D7">
-        <v>1.022832091704493</v>
+        <v>1.033130846741254</v>
       </c>
       <c r="E7">
-        <v>1.013441292446033</v>
+        <v>1.02934579589976</v>
       </c>
       <c r="F7">
-        <v>1.015624605652428</v>
+        <v>1.040342983159912</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04338219513401</v>
+        <v>1.035097855190414</v>
       </c>
       <c r="J7">
-        <v>1.027830732118746</v>
+        <v>1.034119427714024</v>
       </c>
       <c r="K7">
-        <v>1.032659635432025</v>
+        <v>1.035621395754138</v>
       </c>
       <c r="L7">
-        <v>1.023377207197983</v>
+        <v>1.031846009672801</v>
       </c>
       <c r="M7">
-        <v>1.025535103688694</v>
+        <v>1.042815326400139</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003518207333652</v>
+        <v>1.028460727389323</v>
       </c>
       <c r="D8">
-        <v>1.019219559370452</v>
+        <v>1.03233154701322</v>
       </c>
       <c r="E8">
-        <v>1.009385747857296</v>
+        <v>1.028416543349912</v>
       </c>
       <c r="F8">
-        <v>1.009369937658418</v>
+        <v>1.038906138591873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041936912610376</v>
+        <v>1.0348471247867</v>
       </c>
       <c r="J8">
-        <v>1.025024843795327</v>
+        <v>1.033493324713046</v>
       </c>
       <c r="K8">
-        <v>1.030145333860484</v>
+        <v>1.035073355260766</v>
       </c>
       <c r="L8">
-        <v>1.020440066584207</v>
+        <v>1.031169421751041</v>
       </c>
       <c r="M8">
-        <v>1.02042446558061</v>
+        <v>1.041629559904111</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9940841200949287</v>
+        <v>1.026529924223539</v>
       </c>
       <c r="D9">
-        <v>1.012606428519304</v>
+        <v>1.030926413668264</v>
       </c>
       <c r="E9">
-        <v>1.001980379293748</v>
+        <v>1.02678559067457</v>
       </c>
       <c r="F9">
-        <v>0.9978829484739121</v>
+        <v>1.036381230288489</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039215963882895</v>
+        <v>1.034398311009536</v>
       </c>
       <c r="J9">
-        <v>1.019847526934614</v>
+        <v>1.032389173337054</v>
       </c>
       <c r="K9">
-        <v>1.025498233503207</v>
+        <v>1.034105631452347</v>
       </c>
       <c r="L9">
-        <v>1.015041407731813</v>
+        <v>1.029978522967105</v>
       </c>
       <c r="M9">
-        <v>1.011010466999563</v>
+        <v>1.039542564945297</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9875078978712946</v>
+        <v>1.025245580053754</v>
       </c>
       <c r="D10">
-        <v>1.008016954516645</v>
+        <v>1.029991993345788</v>
       </c>
       <c r="E10">
-        <v>0.9968530434384844</v>
+        <v>1.025702762192786</v>
       </c>
       <c r="F10">
-        <v>0.9898769444217816</v>
+        <v>1.034702709201028</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03727715626993</v>
+        <v>1.034094434196457</v>
       </c>
       <c r="J10">
-        <v>1.016226065357543</v>
+        <v>1.031652545749159</v>
       </c>
       <c r="K10">
-        <v>1.022242953479993</v>
+        <v>1.033459196058225</v>
       </c>
       <c r="L10">
-        <v>1.011279350575876</v>
+        <v>1.029185559573804</v>
       </c>
       <c r="M10">
-        <v>1.004431411271767</v>
+        <v>1.038152949254817</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9845860636960845</v>
+        <v>1.024690140174737</v>
       </c>
       <c r="D11">
-        <v>1.005983353638447</v>
+        <v>1.029587952525911</v>
       </c>
       <c r="E11">
-        <v>0.9945837871681187</v>
+        <v>1.025234966951198</v>
       </c>
       <c r="F11">
-        <v>0.9863192438801559</v>
+        <v>1.033977027508453</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036406158238799</v>
+        <v>1.033961752456589</v>
       </c>
       <c r="J11">
-        <v>1.014614442986113</v>
+        <v>1.031333466273653</v>
       </c>
       <c r="K11">
-        <v>1.020793307971835</v>
+        <v>1.033178990516856</v>
       </c>
       <c r="L11">
-        <v>1.009608573295194</v>
+        <v>1.028842442486907</v>
       </c>
       <c r="M11">
-        <v>1.001503854673953</v>
+        <v>1.037551646796448</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9834890346422104</v>
+        <v>1.024483930066112</v>
       </c>
       <c r="D12">
-        <v>1.005220709497595</v>
+        <v>1.029437960895254</v>
       </c>
       <c r="E12">
-        <v>0.9937331546719934</v>
+        <v>1.025061370374549</v>
       </c>
       <c r="F12">
-        <v>0.9849832985071807</v>
+        <v>1.033707647347245</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036077730457382</v>
+        <v>1.033912303700407</v>
       </c>
       <c r="J12">
-        <v>1.014008987034964</v>
+        <v>1.031214929750629</v>
       </c>
       <c r="K12">
-        <v>1.020248567822929</v>
+        <v>1.033074866469825</v>
       </c>
       <c r="L12">
-        <v>1.008981410531954</v>
+        <v>1.028715030973268</v>
       </c>
       <c r="M12">
-        <v>1.000403962787399</v>
+        <v>1.03732835867328</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9837248914349783</v>
+        <v>1.024528158060959</v>
       </c>
       <c r="D13">
-        <v>1.005384633682926</v>
+        <v>1.029470130641466</v>
       </c>
       <c r="E13">
-        <v>0.9939159739559031</v>
+        <v>1.025098600008619</v>
       </c>
       <c r="F13">
-        <v>0.9852705306180782</v>
+        <v>1.033765422586991</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036148403942763</v>
+        <v>1.033922918077061</v>
       </c>
       <c r="J13">
-        <v>1.014139173242146</v>
+        <v>1.031240356953224</v>
       </c>
       <c r="K13">
-        <v>1.020365704759002</v>
+        <v>1.03309720337089</v>
       </c>
       <c r="L13">
-        <v>1.009116240769427</v>
+        <v>1.028742359461548</v>
       </c>
       <c r="M13">
-        <v>1.000640468093865</v>
+        <v>1.037376251898779</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9844956256351201</v>
+        <v>1.024673092632972</v>
       </c>
       <c r="D14">
-        <v>1.00592046351121</v>
+        <v>1.029575552384575</v>
       </c>
       <c r="E14">
-        <v>0.994513633433546</v>
+        <v>1.025220614061066</v>
       </c>
       <c r="F14">
-        <v>0.9862091138255694</v>
+        <v>1.033954756981479</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036379111286574</v>
+        <v>1.033957668366549</v>
       </c>
       <c r="J14">
-        <v>1.014564536841049</v>
+        <v>1.031323668332007</v>
       </c>
       <c r="K14">
-        <v>1.020748409164282</v>
+        <v>1.033170384466511</v>
       </c>
       <c r="L14">
-        <v>1.009556867390089</v>
+        <v>1.028831909840555</v>
       </c>
       <c r="M14">
-        <v>1.00141319539088</v>
+        <v>1.037533188453641</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.984968928470291</v>
+        <v>1.024762405560379</v>
       </c>
       <c r="D15">
-        <v>1.006249632331982</v>
+        <v>1.029640517791347</v>
       </c>
       <c r="E15">
-        <v>0.9948808359185933</v>
+        <v>1.025295812647836</v>
       </c>
       <c r="F15">
-        <v>0.9867854660484524</v>
+        <v>1.034071434742511</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036520603065264</v>
+        <v>1.033979057339732</v>
       </c>
       <c r="J15">
-        <v>1.014825703633046</v>
+        <v>1.031374997107281</v>
       </c>
       <c r="K15">
-        <v>1.020983366295149</v>
+        <v>1.033215468057444</v>
       </c>
       <c r="L15">
-        <v>1.009827473695415</v>
+        <v>1.028887089782868</v>
       </c>
       <c r="M15">
-        <v>1.001887626584757</v>
+        <v>1.037629890533211</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.987700197503982</v>
+        <v>1.02528245741696</v>
       </c>
       <c r="D16">
-        <v>1.008150915464563</v>
+        <v>1.030018820334892</v>
       </c>
       <c r="E16">
-        <v>0.9970025825010858</v>
+        <v>1.025733831046899</v>
       </c>
       <c r="F16">
-        <v>0.9901110738075084</v>
+        <v>1.034750894152351</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037334283949029</v>
+        <v>1.034103216697102</v>
       </c>
       <c r="J16">
-        <v>1.01633208235853</v>
+        <v>1.031673719673311</v>
       </c>
       <c r="K16">
-        <v>1.022338295713671</v>
+        <v>1.03347778625676</v>
       </c>
       <c r="L16">
-        <v>1.011389330391867</v>
+        <v>1.029208336310907</v>
       </c>
       <c r="M16">
-        <v>1.004623990829385</v>
+        <v>1.038192864426242</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9893931713549763</v>
+        <v>1.025608857815465</v>
       </c>
       <c r="D17">
-        <v>1.009330921070928</v>
+        <v>1.030256273073561</v>
       </c>
       <c r="E17">
-        <v>0.9983201124079387</v>
+        <v>1.02600887782955</v>
       </c>
       <c r="F17">
-        <v>0.9921722307837961</v>
+        <v>1.035177403856394</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037836138947121</v>
+        <v>1.034180804197168</v>
       </c>
       <c r="J17">
-        <v>1.017265146261289</v>
+        <v>1.031861070440594</v>
       </c>
       <c r="K17">
-        <v>1.023177299808194</v>
+        <v>1.033642253361207</v>
       </c>
       <c r="L17">
-        <v>1.012357660390384</v>
+        <v>1.029409911218112</v>
       </c>
       <c r="M17">
-        <v>1.006318915466289</v>
+        <v>1.038546113446029</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9903735270897434</v>
+        <v>1.025799308091089</v>
       </c>
       <c r="D18">
-        <v>1.010014750554496</v>
+        <v>1.030394830066339</v>
       </c>
       <c r="E18">
-        <v>0.999083894317485</v>
+        <v>1.02616941173359</v>
       </c>
       <c r="F18">
-        <v>0.9933657392590592</v>
+        <v>1.035426288636412</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038125837054203</v>
+        <v>1.034225953396978</v>
       </c>
       <c r="J18">
-        <v>1.017805209626789</v>
+        <v>1.031970337819205</v>
       </c>
       <c r="K18">
-        <v>1.023662826833476</v>
+        <v>1.033738155731168</v>
       </c>
       <c r="L18">
-        <v>1.012918459697499</v>
+        <v>1.029527509652299</v>
       </c>
       <c r="M18">
-        <v>1.007299979815137</v>
+        <v>1.038752197161395</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9907066108400474</v>
+        <v>1.025864257941591</v>
       </c>
       <c r="D19">
-        <v>1.010247173528471</v>
+        <v>1.030442083671801</v>
       </c>
       <c r="E19">
-        <v>0.9993435355740278</v>
+        <v>1.026224167197049</v>
       </c>
       <c r="F19">
-        <v>0.9937712368915677</v>
+        <v>1.035511170362081</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038224108459289</v>
+        <v>1.034241330063624</v>
       </c>
       <c r="J19">
-        <v>1.017988657330316</v>
+        <v>1.032007593247427</v>
       </c>
       <c r="K19">
-        <v>1.023827733464652</v>
+        <v>1.033770851093332</v>
       </c>
       <c r="L19">
-        <v>1.01310900574816</v>
+        <v>1.029567611578213</v>
       </c>
       <c r="M19">
-        <v>1.007633234154223</v>
+        <v>1.038822473066704</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.989212272486694</v>
+        <v>1.025573831258954</v>
       </c>
       <c r="D20">
-        <v>1.009204779903912</v>
+        <v>1.030230790959424</v>
       </c>
       <c r="E20">
-        <v>0.9981792436956818</v>
+        <v>1.02597935716753</v>
       </c>
       <c r="F20">
-        <v>0.9919519965353402</v>
+        <v>1.035131632133879</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037782608787096</v>
+        <v>1.034172490781207</v>
       </c>
       <c r="J20">
-        <v>1.017165471431411</v>
+        <v>1.031840970622418</v>
       </c>
       <c r="K20">
-        <v>1.023087682607587</v>
+        <v>1.033624610538689</v>
       </c>
       <c r="L20">
-        <v>1.012254184642159</v>
+        <v>1.029388281729795</v>
       </c>
       <c r="M20">
-        <v>1.006137852123059</v>
+        <v>1.038508209074278</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9842689921759837</v>
+        <v>1.024630410104439</v>
       </c>
       <c r="D21">
-        <v>1.005762878404762</v>
+        <v>1.029544505891175</v>
       </c>
       <c r="E21">
-        <v>0.9943378539518026</v>
+        <v>1.025184679439715</v>
       </c>
       <c r="F21">
-        <v>0.9859331300667088</v>
+        <v>1.033898998013657</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036311310422828</v>
+        <v>1.033947439818483</v>
       </c>
       <c r="J21">
-        <v>1.01443946877379</v>
+        <v>1.031299135646097</v>
       </c>
       <c r="K21">
-        <v>1.020635887664388</v>
+        <v>1.033148835642847</v>
       </c>
       <c r="L21">
-        <v>1.009427297342206</v>
+        <v>1.028805538442511</v>
       </c>
       <c r="M21">
-        <v>1.001185995895579</v>
+        <v>1.037486972821736</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9810927819315494</v>
+        <v>1.024037851927992</v>
       </c>
       <c r="D22">
-        <v>1.003556562076646</v>
+        <v>1.029113516059351</v>
       </c>
       <c r="E22">
-        <v>0.9918777062245931</v>
+        <v>1.024685980236798</v>
       </c>
       <c r="F22">
-        <v>0.9820647608818343</v>
+        <v>1.03312497785472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035357802254875</v>
+        <v>1.03380498785816</v>
       </c>
       <c r="J22">
-        <v>1.012685861894342</v>
+        <v>1.030958369294332</v>
       </c>
       <c r="K22">
-        <v>1.019057890502406</v>
+        <v>1.032849447470368</v>
       </c>
       <c r="L22">
-        <v>1.007611802999916</v>
+        <v>1.028439361873809</v>
       </c>
       <c r="M22">
-        <v>0.9980000925675298</v>
+        <v>1.036845242355699</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9827832128966192</v>
+        <v>1.02435192012003</v>
       </c>
       <c r="D23">
-        <v>1.004730287461474</v>
+        <v>1.029341943544313</v>
       </c>
       <c r="E23">
-        <v>0.9931862587036858</v>
+        <v>1.024950259877632</v>
       </c>
       <c r="F23">
-        <v>0.984123699428871</v>
+        <v>1.03353520690147</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035866031079669</v>
+        <v>1.033880594525159</v>
       </c>
       <c r="J23">
-        <v>1.013619343727104</v>
+        <v>1.031139024465182</v>
       </c>
       <c r="K23">
-        <v>1.019897961585395</v>
+        <v>1.033008182114949</v>
       </c>
       <c r="L23">
-        <v>1.008577943801308</v>
+        <v>1.028633458007143</v>
       </c>
       <c r="M23">
-        <v>0.9996960920826939</v>
+        <v>1.037185401322252</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9892940348827822</v>
+        <v>1.025589658046985</v>
       </c>
       <c r="D24">
-        <v>1.009261791390321</v>
+        <v>1.030242305060725</v>
       </c>
       <c r="E24">
-        <v>0.9982429107361728</v>
+        <v>1.02599269596357</v>
       </c>
       <c r="F24">
-        <v>0.9920515378325605</v>
+        <v>1.035152314068625</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037806806099321</v>
+        <v>1.03417624758447</v>
       </c>
       <c r="J24">
-        <v>1.017210523083822</v>
+        <v>1.031850052899649</v>
       </c>
       <c r="K24">
-        <v>1.023128188641939</v>
+        <v>1.033632582658969</v>
       </c>
       <c r="L24">
-        <v>1.012300953254098</v>
+        <v>1.029398055092988</v>
       </c>
       <c r="M24">
-        <v>1.006219690160097</v>
+        <v>1.038525336306147</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9965716189098953</v>
+        <v>1.027028585523107</v>
       </c>
       <c r="D25">
-        <v>1.01434682922982</v>
+        <v>1.031289269519513</v>
       </c>
       <c r="E25">
-        <v>1.003927156591921</v>
+        <v>1.027206449678704</v>
       </c>
       <c r="F25">
-        <v>1.000911244223242</v>
+        <v>1.037033145716089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039940802660001</v>
+        <v>1.034515165419162</v>
       </c>
       <c r="J25">
-        <v>1.021214915186384</v>
+        <v>1.032674720419604</v>
       </c>
       <c r="K25">
-        <v>1.026726437971055</v>
+        <v>1.034356042552321</v>
       </c>
       <c r="L25">
-        <v>1.016464812882091</v>
+        <v>1.030286233240774</v>
       </c>
       <c r="M25">
-        <v>1.013495430749733</v>
+        <v>1.04008180460958</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028178317714243</v>
+        <v>1.002171177558813</v>
       </c>
       <c r="D2">
-        <v>1.032125997470701</v>
+        <v>1.018273257352452</v>
       </c>
       <c r="E2">
-        <v>1.028177753935987</v>
+        <v>1.008324676436375</v>
       </c>
       <c r="F2">
-        <v>1.038536709080203</v>
+        <v>1.007729355050951</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034782100449942</v>
+        <v>1.041553284883601</v>
       </c>
       <c r="J2">
-        <v>1.033332078246427</v>
+        <v>1.024287142441891</v>
       </c>
       <c r="K2">
-        <v>1.034932128703562</v>
+        <v>1.029483753896095</v>
       </c>
       <c r="L2">
-        <v>1.030995328357599</v>
+        <v>1.019669240901956</v>
       </c>
       <c r="M2">
-        <v>1.041324461438989</v>
+        <v>1.019082047800485</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02901428895391</v>
+        <v>1.006126689993874</v>
       </c>
       <c r="D3">
-        <v>1.032734477795152</v>
+        <v>1.021053956333387</v>
       </c>
       <c r="E3">
-        <v>1.028884844064936</v>
+        <v>1.011444101614789</v>
       </c>
       <c r="F3">
-        <v>1.039630400522287</v>
+        <v>1.01254754473744</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034973945342576</v>
+        <v>1.042674713291971</v>
       </c>
       <c r="J3">
-        <v>1.033809130661187</v>
+        <v>1.026451717341465</v>
       </c>
       <c r="K3">
-        <v>1.035349852419388</v>
+        <v>1.03142435271484</v>
       </c>
       <c r="L3">
-        <v>1.031510571376367</v>
+        <v>1.021932617502594</v>
       </c>
       <c r="M3">
-        <v>1.04222743734959</v>
+        <v>1.023022355771772</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.029555748876456</v>
+        <v>1.008637791403637</v>
       </c>
       <c r="D4">
-        <v>1.03312863166901</v>
+        <v>1.022822226997011</v>
       </c>
       <c r="E4">
-        <v>1.029343219136517</v>
+        <v>1.013430206882555</v>
       </c>
       <c r="F4">
-        <v>1.040339000620872</v>
+        <v>1.015607542637546</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035097165090164</v>
+        <v>1.043378291770793</v>
       </c>
       <c r="J4">
-        <v>1.034117694666493</v>
+        <v>1.027823093053172</v>
       </c>
       <c r="K4">
-        <v>1.035619879516503</v>
+        <v>1.032652794973211</v>
       </c>
       <c r="L4">
-        <v>1.031844135539274</v>
+        <v>1.023369198996627</v>
       </c>
       <c r="M4">
-        <v>1.042812041727811</v>
+        <v>1.025521178261961</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029783504251742</v>
+        <v>1.009682246757569</v>
       </c>
       <c r="D5">
-        <v>1.033294434478396</v>
+        <v>1.023558386557286</v>
       </c>
       <c r="E5">
-        <v>1.029536119598433</v>
+        <v>1.014257650089852</v>
       </c>
       <c r="F5">
-        <v>1.040637112796076</v>
+        <v>1.016880651255452</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03514874661287</v>
+        <v>1.043668904827096</v>
       </c>
       <c r="J5">
-        <v>1.034247384981626</v>
+        <v>1.028392806704424</v>
       </c>
       <c r="K5">
-        <v>1.03573333367174</v>
+        <v>1.033162872881477</v>
       </c>
       <c r="L5">
-        <v>1.031984404809889</v>
+        <v>1.023966626653887</v>
       </c>
       <c r="M5">
-        <v>1.043057884838283</v>
+        <v>1.026559920961705</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029821752707136</v>
+        <v>1.009856968410509</v>
       </c>
       <c r="D6">
-        <v>1.033322279348732</v>
+        <v>1.023681573359344</v>
       </c>
       <c r="E6">
-        <v>1.029568520090947</v>
+        <v>1.014396147362005</v>
       </c>
       <c r="F6">
-        <v>1.04068717982518</v>
+        <v>1.01709364504496</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035157394455924</v>
+        <v>1.04371739989134</v>
       </c>
       <c r="J6">
-        <v>1.03426915876628</v>
+        <v>1.028488069984959</v>
       </c>
       <c r="K6">
-        <v>1.035752379267388</v>
+        <v>1.033248148976148</v>
       </c>
       <c r="L6">
-        <v>1.032007958883724</v>
+        <v>1.024066560818581</v>
       </c>
       <c r="M6">
-        <v>1.043099167377257</v>
+        <v>1.026733652081764</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029558791663072</v>
+        <v>1.008651791042326</v>
       </c>
       <c r="D7">
-        <v>1.033130846741254</v>
+        <v>1.022832091704493</v>
       </c>
       <c r="E7">
-        <v>1.02934579589976</v>
+        <v>1.013441292446033</v>
       </c>
       <c r="F7">
-        <v>1.040342983159912</v>
+        <v>1.015624605652427</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035097855190414</v>
+        <v>1.043382195134009</v>
       </c>
       <c r="J7">
-        <v>1.034119427714024</v>
+        <v>1.027830732118746</v>
       </c>
       <c r="K7">
-        <v>1.035621395754138</v>
+        <v>1.032659635432025</v>
       </c>
       <c r="L7">
-        <v>1.031846009672801</v>
+        <v>1.023377207197982</v>
       </c>
       <c r="M7">
-        <v>1.042815326400139</v>
+        <v>1.025535103688693</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028460727389323</v>
+        <v>1.003518207333652</v>
       </c>
       <c r="D8">
-        <v>1.03233154701322</v>
+        <v>1.019219559370452</v>
       </c>
       <c r="E8">
-        <v>1.028416543349912</v>
+        <v>1.009385747857296</v>
       </c>
       <c r="F8">
-        <v>1.038906138591873</v>
+        <v>1.009369937658418</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0348471247867</v>
+        <v>1.041936912610376</v>
       </c>
       <c r="J8">
-        <v>1.033493324713046</v>
+        <v>1.025024843795327</v>
       </c>
       <c r="K8">
-        <v>1.035073355260766</v>
+        <v>1.030145333860484</v>
       </c>
       <c r="L8">
-        <v>1.031169421751041</v>
+        <v>1.020440066584206</v>
       </c>
       <c r="M8">
-        <v>1.041629559904111</v>
+        <v>1.02042446558061</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026529924223539</v>
+        <v>0.9940841200949281</v>
       </c>
       <c r="D9">
-        <v>1.030926413668264</v>
+        <v>1.012606428519303</v>
       </c>
       <c r="E9">
-        <v>1.02678559067457</v>
+        <v>1.001980379293747</v>
       </c>
       <c r="F9">
-        <v>1.036381230288489</v>
+        <v>0.9978829484739112</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034398311009536</v>
+        <v>1.039215963882894</v>
       </c>
       <c r="J9">
-        <v>1.032389173337054</v>
+        <v>1.019847526934613</v>
       </c>
       <c r="K9">
-        <v>1.034105631452347</v>
+        <v>1.025498233503207</v>
       </c>
       <c r="L9">
-        <v>1.029978522967105</v>
+        <v>1.015041407731812</v>
       </c>
       <c r="M9">
-        <v>1.039542564945297</v>
+        <v>1.011010466999562</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025245580053754</v>
+        <v>0.9875078978712951</v>
       </c>
       <c r="D10">
-        <v>1.029991993345788</v>
+        <v>1.008016954516646</v>
       </c>
       <c r="E10">
-        <v>1.025702762192786</v>
+        <v>0.9968530434384848</v>
       </c>
       <c r="F10">
-        <v>1.034702709201028</v>
+        <v>0.9898769444217818</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034094434196457</v>
+        <v>1.03727715626993</v>
       </c>
       <c r="J10">
-        <v>1.031652545749159</v>
+        <v>1.016226065357543</v>
       </c>
       <c r="K10">
-        <v>1.033459196058225</v>
+        <v>1.022242953479993</v>
       </c>
       <c r="L10">
-        <v>1.029185559573804</v>
+        <v>1.011279350575877</v>
       </c>
       <c r="M10">
-        <v>1.038152949254817</v>
+        <v>1.004431411271767</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024690140174737</v>
+        <v>0.9845860636960854</v>
       </c>
       <c r="D11">
-        <v>1.029587952525911</v>
+        <v>1.005983353638448</v>
       </c>
       <c r="E11">
-        <v>1.025234966951198</v>
+        <v>0.9945837871681197</v>
       </c>
       <c r="F11">
-        <v>1.033977027508453</v>
+        <v>0.986319243880157</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033961752456589</v>
+        <v>1.0364061582388</v>
       </c>
       <c r="J11">
-        <v>1.031333466273653</v>
+        <v>1.014614442986113</v>
       </c>
       <c r="K11">
-        <v>1.033178990516856</v>
+        <v>1.020793307971836</v>
       </c>
       <c r="L11">
-        <v>1.028842442486907</v>
+        <v>1.009608573295195</v>
       </c>
       <c r="M11">
-        <v>1.037551646796448</v>
+        <v>1.001503854673954</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024483930066112</v>
+        <v>0.9834890346422106</v>
       </c>
       <c r="D12">
-        <v>1.029437960895254</v>
+        <v>1.005220709497596</v>
       </c>
       <c r="E12">
-        <v>1.025061370374549</v>
+        <v>0.9937331546719933</v>
       </c>
       <c r="F12">
-        <v>1.033707647347245</v>
+        <v>0.984983298507181</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033912303700407</v>
+        <v>1.036077730457382</v>
       </c>
       <c r="J12">
-        <v>1.031214929750629</v>
+        <v>1.014008987034965</v>
       </c>
       <c r="K12">
-        <v>1.033074866469825</v>
+        <v>1.020248567822929</v>
       </c>
       <c r="L12">
-        <v>1.028715030973268</v>
+        <v>1.008981410531954</v>
       </c>
       <c r="M12">
-        <v>1.03732835867328</v>
+        <v>1.000403962787399</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024528158060959</v>
+        <v>0.9837248914349787</v>
       </c>
       <c r="D13">
-        <v>1.029470130641466</v>
+        <v>1.005384633682927</v>
       </c>
       <c r="E13">
-        <v>1.025098600008619</v>
+        <v>0.9939159739559033</v>
       </c>
       <c r="F13">
-        <v>1.033765422586991</v>
+        <v>0.9852705306180787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033922918077061</v>
+        <v>1.036148403942763</v>
       </c>
       <c r="J13">
-        <v>1.031240356953224</v>
+        <v>1.014139173242147</v>
       </c>
       <c r="K13">
-        <v>1.03309720337089</v>
+        <v>1.020365704759003</v>
       </c>
       <c r="L13">
-        <v>1.028742359461548</v>
+        <v>1.009116240769427</v>
       </c>
       <c r="M13">
-        <v>1.037376251898779</v>
+        <v>1.000640468093865</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024673092632972</v>
+        <v>0.9844956256351206</v>
       </c>
       <c r="D14">
-        <v>1.029575552384575</v>
+        <v>1.005920463511211</v>
       </c>
       <c r="E14">
-        <v>1.025220614061066</v>
+        <v>0.9945136334335464</v>
       </c>
       <c r="F14">
-        <v>1.033954756981479</v>
+        <v>0.9862091138255697</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033957668366549</v>
+        <v>1.036379111286575</v>
       </c>
       <c r="J14">
-        <v>1.031323668332007</v>
+        <v>1.014564536841049</v>
       </c>
       <c r="K14">
-        <v>1.033170384466511</v>
+        <v>1.020748409164282</v>
       </c>
       <c r="L14">
-        <v>1.028831909840555</v>
+        <v>1.00955686739009</v>
       </c>
       <c r="M14">
-        <v>1.037533188453641</v>
+        <v>1.00141319539088</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024762405560379</v>
+        <v>0.984968928470291</v>
       </c>
       <c r="D15">
-        <v>1.029640517791347</v>
+        <v>1.006249632331982</v>
       </c>
       <c r="E15">
-        <v>1.025295812647836</v>
+        <v>0.9948808359185933</v>
       </c>
       <c r="F15">
-        <v>1.034071434742511</v>
+        <v>0.9867854660484529</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033979057339732</v>
+        <v>1.036520603065263</v>
       </c>
       <c r="J15">
-        <v>1.031374997107281</v>
+        <v>1.014825703633046</v>
       </c>
       <c r="K15">
-        <v>1.033215468057444</v>
+        <v>1.020983366295149</v>
       </c>
       <c r="L15">
-        <v>1.028887089782868</v>
+        <v>1.009827473695415</v>
       </c>
       <c r="M15">
-        <v>1.037629890533211</v>
+        <v>1.001887626584757</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02528245741696</v>
+        <v>0.9877001975039821</v>
       </c>
       <c r="D16">
-        <v>1.030018820334892</v>
+        <v>1.008150915464563</v>
       </c>
       <c r="E16">
-        <v>1.025733831046899</v>
+        <v>0.9970025825010858</v>
       </c>
       <c r="F16">
-        <v>1.034750894152351</v>
+        <v>0.9901110738075087</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034103216697102</v>
+        <v>1.037334283949029</v>
       </c>
       <c r="J16">
-        <v>1.031673719673311</v>
+        <v>1.01633208235853</v>
       </c>
       <c r="K16">
-        <v>1.03347778625676</v>
+        <v>1.022338295713671</v>
       </c>
       <c r="L16">
-        <v>1.029208336310907</v>
+        <v>1.011389330391867</v>
       </c>
       <c r="M16">
-        <v>1.038192864426242</v>
+        <v>1.004623990829385</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025608857815465</v>
+        <v>0.9893931713549758</v>
       </c>
       <c r="D17">
-        <v>1.030256273073561</v>
+        <v>1.009330921070928</v>
       </c>
       <c r="E17">
-        <v>1.02600887782955</v>
+        <v>0.9983201124079379</v>
       </c>
       <c r="F17">
-        <v>1.035177403856394</v>
+        <v>0.9921722307837959</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034180804197168</v>
+        <v>1.037836138947121</v>
       </c>
       <c r="J17">
-        <v>1.031861070440594</v>
+        <v>1.017265146261288</v>
       </c>
       <c r="K17">
-        <v>1.033642253361207</v>
+        <v>1.023177299808193</v>
       </c>
       <c r="L17">
-        <v>1.029409911218112</v>
+        <v>1.012357660390383</v>
       </c>
       <c r="M17">
-        <v>1.038546113446029</v>
+        <v>1.006318915466288</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025799308091089</v>
+        <v>0.9903735270897429</v>
       </c>
       <c r="D18">
-        <v>1.030394830066339</v>
+        <v>1.010014750554495</v>
       </c>
       <c r="E18">
-        <v>1.02616941173359</v>
+        <v>0.9990838943174847</v>
       </c>
       <c r="F18">
-        <v>1.035426288636412</v>
+        <v>0.9933657392590589</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034225953396978</v>
+        <v>1.038125837054203</v>
       </c>
       <c r="J18">
-        <v>1.031970337819205</v>
+        <v>1.017805209626789</v>
       </c>
       <c r="K18">
-        <v>1.033738155731168</v>
+        <v>1.023662826833476</v>
       </c>
       <c r="L18">
-        <v>1.029527509652299</v>
+        <v>1.012918459697499</v>
       </c>
       <c r="M18">
-        <v>1.038752197161395</v>
+        <v>1.007299979815136</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025864257941591</v>
+        <v>0.9907066108400477</v>
       </c>
       <c r="D19">
-        <v>1.030442083671801</v>
+        <v>1.010247173528471</v>
       </c>
       <c r="E19">
-        <v>1.026224167197049</v>
+        <v>0.999343535574028</v>
       </c>
       <c r="F19">
-        <v>1.035511170362081</v>
+        <v>0.993771236891568</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034241330063624</v>
+        <v>1.038224108459289</v>
       </c>
       <c r="J19">
-        <v>1.032007593247427</v>
+        <v>1.017988657330317</v>
       </c>
       <c r="K19">
-        <v>1.033770851093332</v>
+        <v>1.023827733464652</v>
       </c>
       <c r="L19">
-        <v>1.029567611578213</v>
+        <v>1.01310900574816</v>
       </c>
       <c r="M19">
-        <v>1.038822473066704</v>
+        <v>1.007633234154223</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025573831258954</v>
+        <v>0.9892122724866944</v>
       </c>
       <c r="D20">
-        <v>1.030230790959424</v>
+        <v>1.009204779903912</v>
       </c>
       <c r="E20">
-        <v>1.02597935716753</v>
+        <v>0.998179243695682</v>
       </c>
       <c r="F20">
-        <v>1.035131632133879</v>
+        <v>0.9919519965353403</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034172490781207</v>
+        <v>1.037782608787096</v>
       </c>
       <c r="J20">
-        <v>1.031840970622418</v>
+        <v>1.017165471431412</v>
       </c>
       <c r="K20">
-        <v>1.033624610538689</v>
+        <v>1.023087682607587</v>
       </c>
       <c r="L20">
-        <v>1.029388281729795</v>
+        <v>1.012254184642159</v>
       </c>
       <c r="M20">
-        <v>1.038508209074278</v>
+        <v>1.006137852123059</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024630410104439</v>
+        <v>0.984268992175984</v>
       </c>
       <c r="D21">
-        <v>1.029544505891175</v>
+        <v>1.005762878404762</v>
       </c>
       <c r="E21">
-        <v>1.025184679439715</v>
+        <v>0.9943378539518025</v>
       </c>
       <c r="F21">
-        <v>1.033898998013657</v>
+        <v>0.9859331300667087</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033947439818483</v>
+        <v>1.036311310422828</v>
       </c>
       <c r="J21">
-        <v>1.031299135646097</v>
+        <v>1.01443946877379</v>
       </c>
       <c r="K21">
-        <v>1.033148835642847</v>
+        <v>1.020635887664388</v>
       </c>
       <c r="L21">
-        <v>1.028805538442511</v>
+        <v>1.009427297342206</v>
       </c>
       <c r="M21">
-        <v>1.037486972821736</v>
+        <v>1.001185995895579</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024037851927992</v>
+        <v>0.9810927819315491</v>
       </c>
       <c r="D22">
-        <v>1.029113516059351</v>
+        <v>1.003556562076646</v>
       </c>
       <c r="E22">
-        <v>1.024685980236798</v>
+        <v>0.9918777062245926</v>
       </c>
       <c r="F22">
-        <v>1.03312497785472</v>
+        <v>0.9820647608818344</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03380498785816</v>
+        <v>1.035357802254875</v>
       </c>
       <c r="J22">
-        <v>1.030958369294332</v>
+        <v>1.012685861894341</v>
       </c>
       <c r="K22">
-        <v>1.032849447470368</v>
+        <v>1.019057890502406</v>
       </c>
       <c r="L22">
-        <v>1.028439361873809</v>
+        <v>1.007611802999916</v>
       </c>
       <c r="M22">
-        <v>1.036845242355699</v>
+        <v>0.9980000925675298</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02435192012003</v>
+        <v>0.9827832128966202</v>
       </c>
       <c r="D23">
-        <v>1.029341943544313</v>
+        <v>1.004730287461475</v>
       </c>
       <c r="E23">
-        <v>1.024950259877632</v>
+        <v>0.993186258703686</v>
       </c>
       <c r="F23">
-        <v>1.03353520690147</v>
+        <v>0.9841236994288718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033880594525159</v>
+        <v>1.03586603107967</v>
       </c>
       <c r="J23">
-        <v>1.031139024465182</v>
+        <v>1.013619343727104</v>
       </c>
       <c r="K23">
-        <v>1.033008182114949</v>
+        <v>1.019897961585395</v>
       </c>
       <c r="L23">
-        <v>1.028633458007143</v>
+        <v>1.008577943801308</v>
       </c>
       <c r="M23">
-        <v>1.037185401322252</v>
+        <v>0.9996960920826946</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025589658046985</v>
+        <v>0.9892940348827812</v>
       </c>
       <c r="D24">
-        <v>1.030242305060725</v>
+        <v>1.009261791390321</v>
       </c>
       <c r="E24">
-        <v>1.02599269596357</v>
+        <v>0.9982429107361712</v>
       </c>
       <c r="F24">
-        <v>1.035152314068625</v>
+        <v>0.9920515378325594</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03417624758447</v>
+        <v>1.03780680609932</v>
       </c>
       <c r="J24">
-        <v>1.031850052899649</v>
+        <v>1.017210523083821</v>
       </c>
       <c r="K24">
-        <v>1.033632582658969</v>
+        <v>1.023128188641939</v>
       </c>
       <c r="L24">
-        <v>1.029398055092988</v>
+        <v>1.012300953254097</v>
       </c>
       <c r="M24">
-        <v>1.038525336306147</v>
+        <v>1.006219690160096</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027028585523107</v>
+        <v>0.9965716189098959</v>
       </c>
       <c r="D25">
-        <v>1.031289269519513</v>
+        <v>1.01434682922982</v>
       </c>
       <c r="E25">
-        <v>1.027206449678704</v>
+        <v>1.003927156591922</v>
       </c>
       <c r="F25">
-        <v>1.037033145716089</v>
+        <v>1.000911244223243</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034515165419162</v>
+        <v>1.039940802660001</v>
       </c>
       <c r="J25">
-        <v>1.032674720419604</v>
+        <v>1.021214915186384</v>
       </c>
       <c r="K25">
-        <v>1.034356042552321</v>
+        <v>1.026726437971055</v>
       </c>
       <c r="L25">
-        <v>1.030286233240774</v>
+        <v>1.016464812882092</v>
       </c>
       <c r="M25">
-        <v>1.04008180460958</v>
+        <v>1.013495430749733</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
